--- a/biology/Zoologie/Azuré_cordouan/Azuré_cordouan.xlsx
+++ b/biology/Zoologie/Azuré_cordouan/Azuré_cordouan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_cordouan</t>
+          <t>Azuré_cordouan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudophilotes panoptes
 L’Azuré cordouan (Pseudophilotes panoptes) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Pseudophilotes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_cordouan</t>
+          <t>Azuré_cordouan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudophilotes panoptes (Hübner, 1813)
-Synonymes : Papilio panoptes (Hübner, 1813)[1].
+Synonymes : Papilio panoptes (Hübner, 1813).
 Cependant sa différenciation comme une espèce à part entière reste en question.
-Noms vernaculaires
-L’Azuré cordouan se nomme  en anglais Panoptes blue.
 </t>
         </is>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_cordouan</t>
+          <t>Azuré_cordouan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un très petit papillon bleu foncé avec une frange blanche en damiers.
-Le revers est ocre clair orné de lignes de petits points noirs et d'une ligne submarginale de taches orange estompées à l'aile postérieure[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré cordouan se nomme  en anglais Panoptes blue.
 </t>
         </is>
       </c>
@@ -561,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_cordouan</t>
+          <t>Azuré_cordouan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,17 +593,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux générations d'avril à juin puis en juillet août[2].
-Les chenilles sont soignées par des fourmis.
-Elles hivernent au stade nymphal.
-Plantes hôtes
-Ses plantes hôtes sont Thymus mastichina, Thymus villosus, Satureja montana et autres Thymus spp.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un très petit papillon bleu foncé avec une frange blanche en damiers.
+Le revers est ocre clair orné de lignes de petits points noirs et d'une ligne submarginale de taches orange estompées à l'aile postérieure.
 </t>
         </is>
       </c>
@@ -597,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_cordouan</t>
+          <t>Azuré_cordouan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,16 +627,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations d'avril à juin puis en juillet août.
+Les chenilles sont soignées par des fourmis.
+Elles hivernent au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_cordouan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_cordouan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont Thymus mastichina, Thymus villosus, Satureja montana et autres Thymus spp.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_cordouan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_cordouan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'est présent que dans les 2/3 sud du Portugal et de l'Espagne[2],[1].
-Biotope
-Son habitat est constitué de broussailles sèches.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'est présent que dans les 2/3 sud du Portugal et de l'Espagne,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_cordouan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_cordouan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est constitué de broussailles sèches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_cordouan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_cordouan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
